--- a/creeplifesuperalloy.xlsx
+++ b/creeplifesuperalloy.xlsx
@@ -60,24 +60,6 @@
     <t>Hf_wt</t>
   </si>
   <si>
-    <t>solution_treatment_time</t>
-  </si>
-  <si>
-    <t>1st_step_aging_treatment_time</t>
-  </si>
-  <si>
-    <t>2nd_step_aging_treatment_time</t>
-  </si>
-  <si>
-    <t>solution_treatment_temperature</t>
-  </si>
-  <si>
-    <t>1st_step_aging_treatment_temperature</t>
-  </si>
-  <si>
-    <t>2nd_step_aging_treatment_temperature</t>
-  </si>
-  <si>
     <t>temperature</t>
   </si>
   <si>
@@ -124,7 +106,25 @@
     <t>Ru_wt</t>
   </si>
   <si>
-    <t>Constrained_lattice_misfit</t>
+    <t>Cn</t>
+  </si>
+  <si>
+    <t>2laT</t>
+  </si>
+  <si>
+    <t>1laT</t>
+  </si>
+  <si>
+    <t>AtT</t>
+  </si>
+  <si>
+    <t>2lat</t>
+  </si>
+  <si>
+    <t>1lat</t>
+  </si>
+  <si>
+    <t>Stt</t>
   </si>
 </sst>
 </file>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J51" workbookViewId="0">
-      <selection activeCell="AB53" sqref="AB53"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -567,7 +567,7 @@
     <col min="31" max="31" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="75">
+    <row r="1" spans="1:31" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,55 +611,55 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AE1" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="AE2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -849,7 +849,7 @@
         <v>40</v>
       </c>
       <c r="AE3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -944,7 +944,7 @@
         <v>50</v>
       </c>
       <c r="AE4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -1039,7 +1039,7 @@
         <v>54.1</v>
       </c>
       <c r="AE5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1134,7 +1134,7 @@
         <v>65.599999999999994</v>
       </c>
       <c r="AE6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1229,7 +1229,7 @@
         <v>69.2</v>
       </c>
       <c r="AE7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1324,7 +1324,7 @@
         <v>89.2</v>
       </c>
       <c r="AE8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1419,7 +1419,7 @@
         <v>92.4</v>
       </c>
       <c r="AE9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1514,7 +1514,7 @@
         <v>92.5</v>
       </c>
       <c r="AE10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1609,7 +1609,7 @@
         <v>98.1</v>
       </c>
       <c r="AE11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1704,7 +1704,7 @@
         <v>114.5</v>
       </c>
       <c r="AE12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1799,7 +1799,7 @@
         <v>133.80000000000001</v>
       </c>
       <c r="AE13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1894,7 +1894,7 @@
         <v>173.5</v>
       </c>
       <c r="AE14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1989,7 +1989,7 @@
         <v>224.8</v>
       </c>
       <c r="AE15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -2084,7 +2084,7 @@
         <v>240.5</v>
       </c>
       <c r="AE16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -2179,7 +2179,7 @@
         <v>277.10000000000002</v>
       </c>
       <c r="AE17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2274,7 +2274,7 @@
         <v>304.60000000000002</v>
       </c>
       <c r="AE18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2369,7 +2369,7 @@
         <v>339.8</v>
       </c>
       <c r="AE19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2464,7 +2464,7 @@
         <v>368</v>
       </c>
       <c r="AE20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2559,7 +2559,7 @@
         <v>30.2</v>
       </c>
       <c r="AE21" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2654,7 +2654,7 @@
         <v>35.1</v>
       </c>
       <c r="AE22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2749,7 +2749,7 @@
         <v>42.3</v>
       </c>
       <c r="AE23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2844,7 +2844,7 @@
         <v>42.8</v>
       </c>
       <c r="AE24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -2939,7 +2939,7 @@
         <v>43.1</v>
       </c>
       <c r="AE25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -3034,7 +3034,7 @@
         <v>43.5</v>
       </c>
       <c r="AE26" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -3129,7 +3129,7 @@
         <v>44.5</v>
       </c>
       <c r="AE27" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -3224,7 +3224,7 @@
         <v>45.5</v>
       </c>
       <c r="AE28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -3319,7 +3319,7 @@
         <v>46.3</v>
       </c>
       <c r="AE29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -3414,7 +3414,7 @@
         <v>47.1</v>
       </c>
       <c r="AE30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -3509,7 +3509,7 @@
         <v>47.6</v>
       </c>
       <c r="AE31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -3604,7 +3604,7 @@
         <v>48.7</v>
       </c>
       <c r="AE32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -3699,7 +3699,7 @@
         <v>49.1</v>
       </c>
       <c r="AE33" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -3794,7 +3794,7 @@
         <v>51.4</v>
       </c>
       <c r="AE34" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -3889,7 +3889,7 @@
         <v>52.2</v>
       </c>
       <c r="AE35" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -3984,7 +3984,7 @@
         <v>53.5</v>
       </c>
       <c r="AE36" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -4079,7 +4079,7 @@
         <v>53.8</v>
       </c>
       <c r="AE37" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -4174,7 +4174,7 @@
         <v>55.3</v>
       </c>
       <c r="AE38" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -4269,7 +4269,7 @@
         <v>55.5</v>
       </c>
       <c r="AE39" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -4364,7 +4364,7 @@
         <v>55.5</v>
       </c>
       <c r="AE40" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -4459,7 +4459,7 @@
         <v>57.9</v>
       </c>
       <c r="AE41" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -4554,7 +4554,7 @@
         <v>59.8</v>
       </c>
       <c r="AE42" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -4649,7 +4649,7 @@
         <v>63.7</v>
       </c>
       <c r="AE43" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -4744,7 +4744,7 @@
         <v>64.2</v>
       </c>
       <c r="AE44" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -4839,7 +4839,7 @@
         <v>64.8</v>
       </c>
       <c r="AE45" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -4934,7 +4934,7 @@
         <v>65.400000000000006</v>
       </c>
       <c r="AE46" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -5029,7 +5029,7 @@
         <v>5040</v>
       </c>
       <c r="AE47" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -5124,7 +5124,7 @@
         <v>5180</v>
       </c>
       <c r="AE48" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -5219,7 +5219,7 @@
         <v>6815</v>
       </c>
       <c r="AE49" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -5314,7 +5314,7 @@
         <v>2280</v>
       </c>
       <c r="AE50" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -5409,7 +5409,7 @@
         <v>2388</v>
       </c>
       <c r="AE51" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -5504,7 +5504,7 @@
         <v>2203</v>
       </c>
       <c r="AE52" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -5599,7 +5599,7 @@
         <v>917</v>
       </c>
       <c r="AE53" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -5694,7 +5694,7 @@
         <v>918</v>
       </c>
       <c r="AE54" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -5789,7 +5789,7 @@
         <v>947</v>
       </c>
       <c r="AE55" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -5884,7 +5884,7 @@
         <v>953</v>
       </c>
       <c r="AE56" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -5979,7 +5979,7 @@
         <v>805</v>
       </c>
       <c r="AE57" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -6074,7 +6074,7 @@
         <v>837</v>
       </c>
       <c r="AE58" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -6169,7 +6169,7 @@
         <v>416</v>
       </c>
       <c r="AE59" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -6264,7 +6264,7 @@
         <v>435</v>
       </c>
       <c r="AE60" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -6359,7 +6359,7 @@
         <v>387</v>
       </c>
       <c r="AE61" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -6454,7 +6454,7 @@
         <v>377</v>
       </c>
       <c r="AE62" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -6549,7 +6549,7 @@
         <v>319</v>
       </c>
       <c r="AE63" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -6644,7 +6644,7 @@
         <v>121.4</v>
       </c>
       <c r="AE64" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -6739,7 +6739,7 @@
         <v>126.5</v>
       </c>
       <c r="AE65" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -6834,7 +6834,7 @@
         <v>119.2</v>
       </c>
       <c r="AE66" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -6929,7 +6929,7 @@
         <v>3917</v>
       </c>
       <c r="AE67" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -7024,7 +7024,7 @@
         <v>3825</v>
       </c>
       <c r="AE68" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -7119,7 +7119,7 @@
         <v>3054</v>
       </c>
       <c r="AE69" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -7214,7 +7214,7 @@
         <v>1752</v>
       </c>
       <c r="AE70" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -7309,7 +7309,7 @@
         <v>1803</v>
       </c>
       <c r="AE71" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -7404,7 +7404,7 @@
         <v>592</v>
       </c>
       <c r="AE72" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -7499,7 +7499,7 @@
         <v>593</v>
       </c>
       <c r="AE73" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:31">
@@ -7594,7 +7594,7 @@
         <v>584</v>
       </c>
       <c r="AE74" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:31">
@@ -7689,7 +7689,7 @@
         <v>454.3</v>
       </c>
       <c r="AE75" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:31">
@@ -7784,7 +7784,7 @@
         <v>281</v>
       </c>
       <c r="AE76" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:31">
@@ -7879,7 +7879,7 @@
         <v>261</v>
       </c>
       <c r="AE77" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:31">
@@ -7974,7 +7974,7 @@
         <v>213</v>
       </c>
       <c r="AE78" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:31">
@@ -8069,7 +8069,7 @@
         <v>43.8</v>
       </c>
       <c r="AE79" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:31">
@@ -8164,7 +8164,7 @@
         <v>44.1</v>
       </c>
       <c r="AE80" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:31">
@@ -8259,7 +8259,7 @@
         <v>55.2</v>
       </c>
       <c r="AE81" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:31">
@@ -8354,7 +8354,7 @@
         <v>56.3</v>
       </c>
       <c r="AE82" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:31">
@@ -8449,7 +8449,7 @@
         <v>56.3</v>
       </c>
       <c r="AE83" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:31">
@@ -8544,7 +8544,7 @@
         <v>57.4</v>
       </c>
       <c r="AE84" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:31">
@@ -8639,7 +8639,7 @@
         <v>85.6</v>
       </c>
       <c r="AE85" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:31">
@@ -8734,7 +8734,7 @@
         <v>101.9</v>
       </c>
       <c r="AE86" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:31">
@@ -8829,7 +8829,7 @@
         <v>161.80000000000001</v>
       </c>
       <c r="AE87" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:31">
@@ -8924,7 +8924,7 @@
         <v>3764</v>
       </c>
       <c r="AE88" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:31">
@@ -9019,7 +9019,7 @@
         <v>3243</v>
       </c>
       <c r="AE89" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:31">
@@ -9114,7 +9114,7 @@
         <v>3427</v>
       </c>
       <c r="AE90" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:31">
@@ -9209,7 +9209,7 @@
         <v>2721</v>
       </c>
       <c r="AE91" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:31">
@@ -9304,7 +9304,7 @@
         <v>2537</v>
       </c>
       <c r="AE92" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:31">
@@ -9399,7 +9399,7 @@
         <v>1803</v>
       </c>
       <c r="AE93" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:31">
@@ -9494,7 +9494,7 @@
         <v>1648</v>
       </c>
       <c r="AE94" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:31">
@@ -9589,7 +9589,7 @@
         <v>1423</v>
       </c>
       <c r="AE95" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:31">
@@ -9684,7 +9684,7 @@
         <v>583</v>
       </c>
       <c r="AE96" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:31">
@@ -9779,7 +9779,7 @@
         <v>487</v>
       </c>
       <c r="AE97" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:31">
@@ -9874,7 +9874,7 @@
         <v>473</v>
       </c>
       <c r="AE98" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:31">
@@ -9969,7 +9969,7 @@
         <v>232</v>
       </c>
       <c r="AE99" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:31">
@@ -10064,7 +10064,7 @@
         <v>281</v>
       </c>
       <c r="AE100" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:31">
@@ -10159,7 +10159,7 @@
         <v>167</v>
       </c>
       <c r="AE101" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
